--- a/artfynd/A 14301-2023.xlsx
+++ b/artfynd/A 14301-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107856371</v>
+        <v>107856613</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>585757.3301987207</v>
+        <v>585871.3090144017</v>
       </c>
       <c r="R2" t="n">
-        <v>6393981.30443168</v>
+        <v>6393989.072683465</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107856613</v>
+        <v>107856240</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,28 +813,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -849,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>585871.3090144017</v>
+        <v>585839.5429383111</v>
       </c>
       <c r="R3" t="n">
-        <v>6393989.072683465</v>
+        <v>6393945.609328114</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107856240</v>
+        <v>107856215</v>
       </c>
       <c r="B4" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,37 +938,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -974,10 +970,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>585839.5429383111</v>
+        <v>585827.0278735023</v>
       </c>
       <c r="R4" t="n">
-        <v>6393945.609328114</v>
+        <v>6393929.297724779</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1047,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107856215</v>
+        <v>107856294</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1081,7 +1077,11 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>585827.0278735023</v>
+        <v>585820.3320085882</v>
       </c>
       <c r="R5" t="n">
-        <v>6393929.297724779</v>
+        <v>6393992.268917265</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107856294</v>
+        <v>107856266</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1197,7 +1197,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1212,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>585820.3320085882</v>
+        <v>585831.1129932627</v>
       </c>
       <c r="R6" t="n">
-        <v>6393992.268917265</v>
+        <v>6393989.288691249</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1285,7 +1289,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107856266</v>
+        <v>107856259</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1318,11 +1322,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585831.1129932627</v>
+        <v>585838.8369974099</v>
       </c>
       <c r="R7" t="n">
-        <v>6393989.288691249</v>
+        <v>6393953.617245103</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107856305</v>
+        <v>107856280</v>
       </c>
       <c r="B8" t="n">
         <v>103265</v>
@@ -1444,7 +1444,11 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1454,10 +1458,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585775.987021131</v>
+        <v>585819.2153204344</v>
       </c>
       <c r="R8" t="n">
-        <v>6393985.979127978</v>
+        <v>6393994.384627678</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1527,7 +1531,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107856259</v>
+        <v>107856371</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1575,10 +1579,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585838.8369974099</v>
+        <v>585757.3301987207</v>
       </c>
       <c r="R9" t="n">
-        <v>6393953.617245103</v>
+        <v>6393981.30443168</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1648,7 +1652,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107856280</v>
+        <v>107856305</v>
       </c>
       <c r="B10" t="n">
         <v>103265</v>
@@ -1682,11 +1686,7 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585819.2153204344</v>
+        <v>585775.987021131</v>
       </c>
       <c r="R10" t="n">
-        <v>6393994.384627678</v>
+        <v>6393985.979127978</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 14301-2023.xlsx
+++ b/artfynd/A 14301-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107856613</v>
+        <v>107856371</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>585871.3090144017</v>
+        <v>585757.3301987207</v>
       </c>
       <c r="R2" t="n">
-        <v>6393989.072683465</v>
+        <v>6393981.30443168</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107856240</v>
+        <v>107856613</v>
       </c>
       <c r="B3" t="n">
-        <v>103265</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,32 +813,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -853,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>585839.5429383111</v>
+        <v>585871.3090144017</v>
       </c>
       <c r="R3" t="n">
-        <v>6393945.609328114</v>
+        <v>6393989.072683465</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -926,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107856215</v>
+        <v>107856240</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>103265</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,29 +934,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -970,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>585827.0278735023</v>
+        <v>585839.5429383111</v>
       </c>
       <c r="R4" t="n">
-        <v>6393929.297724779</v>
+        <v>6393945.609328114</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1043,7 +1047,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107856294</v>
+        <v>107856215</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1077,11 +1081,7 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>585820.3320085882</v>
+        <v>585827.0278735023</v>
       </c>
       <c r="R5" t="n">
-        <v>6393992.268917265</v>
+        <v>6393929.297724779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107856266</v>
+        <v>107856294</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1197,11 +1197,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1216,10 +1212,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>585831.1129932627</v>
+        <v>585820.3320085882</v>
       </c>
       <c r="R6" t="n">
-        <v>6393989.288691249</v>
+        <v>6393992.268917265</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1289,7 +1285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107856259</v>
+        <v>107856266</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1322,7 +1318,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>plantor/tuvor</t>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585838.8369974099</v>
+        <v>585831.1129932627</v>
       </c>
       <c r="R7" t="n">
-        <v>6393953.617245103</v>
+        <v>6393989.288691249</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107856280</v>
+        <v>107856305</v>
       </c>
       <c r="B8" t="n">
         <v>103265</v>
@@ -1444,11 +1444,7 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1458,10 +1454,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585819.2153204344</v>
+        <v>585775.987021131</v>
       </c>
       <c r="R8" t="n">
-        <v>6393994.384627678</v>
+        <v>6393985.979127978</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1531,7 +1527,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107856371</v>
+        <v>107856259</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1579,10 +1575,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585757.3301987207</v>
+        <v>585838.8369974099</v>
       </c>
       <c r="R9" t="n">
-        <v>6393981.30443168</v>
+        <v>6393953.617245103</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1652,7 +1648,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107856305</v>
+        <v>107856280</v>
       </c>
       <c r="B10" t="n">
         <v>103265</v>
@@ -1686,7 +1682,11 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585775.987021131</v>
+        <v>585819.2153204344</v>
       </c>
       <c r="R10" t="n">
-        <v>6393985.979127978</v>
+        <v>6393994.384627678</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
